--- a/FIFA groupstage Real result.xlsx
+++ b/FIFA groupstage Real result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE7F414-2635-F84F-9622-CA1D2123B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847889E-F524-AF4A-89C6-ED24EAF0434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,12 +77,6 @@
     <t>point_change_away</t>
   </si>
   <si>
-    <t>Home_score</t>
-  </si>
-  <si>
-    <t>Away_score</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Home_score_actual</t>
+  </si>
+  <si>
+    <t>Away_score_actual</t>
   </si>
 </sst>
 </file>
@@ -650,10 +650,13 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -699,10 +702,10 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -713,25 +716,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>1644.21</v>
@@ -766,25 +769,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>1532.2</v>
@@ -819,25 +822,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
         <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
       </c>
       <c r="I4">
         <v>1727.5</v>
@@ -872,25 +875,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
         <v>64</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
       </c>
       <c r="I5">
         <v>1724.6</v>
@@ -925,25 +928,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6">
         <v>1531.49</v>
@@ -978,25 +981,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I7">
         <v>1427.84</v>
@@ -1031,25 +1034,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8">
         <v>1514.2</v>
@@ -1084,25 +1087,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I9">
         <v>1468.17</v>
@@ -1137,25 +1140,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>1795.23</v>
@@ -1190,25 +1193,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11">
         <v>1554.86</v>
@@ -1243,25 +1246,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12">
         <v>1495.94</v>
@@ -1296,25 +1299,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I13">
         <v>1748.11</v>
@@ -1349,25 +1352,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
       </c>
       <c r="I14">
         <v>1721.07</v>
@@ -1402,25 +1405,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15">
         <v>1644.21</v>
@@ -1455,25 +1458,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I16">
         <v>1497.46</v>
@@ -1503,30 +1506,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I17">
         <v>1427.84</v>
@@ -1549,31 +1552,37 @@
       <c r="O17">
         <v>-3.23</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I18">
         <v>1602.72</v>
@@ -1596,31 +1605,37 @@
       <c r="O18">
         <v>-5.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
         <v>64</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
       </c>
       <c r="I19">
         <v>1727.5</v>
@@ -1643,31 +1658,37 @@
       <c r="O19">
         <v>5.78</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I20">
         <v>1461.55</v>
@@ -1690,31 +1711,37 @@
       <c r="O20">
         <v>15.51</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I21">
         <v>1531.49</v>
@@ -1737,31 +1764,37 @@
       <c r="O21">
         <v>8.76</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I22">
         <v>1742.29</v>
@@ -1784,31 +1817,37 @@
       <c r="O22">
         <v>-4.8499999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I23">
         <v>1333.76</v>
@@ -1832,30 +1871,30 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I24">
         <v>1495.94</v>
@@ -1879,30 +1918,30 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I25">
         <v>1795.23</v>
@@ -1926,30 +1965,30 @@
         <v>-4.5599999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I26">
         <v>1616.41</v>
@@ -1973,30 +2012,30 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I27">
         <v>1497.46</v>
@@ -2020,30 +2059,30 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
         <v>64</v>
-      </c>
-      <c r="H28" t="s">
-        <v>66</v>
       </c>
       <c r="I28">
         <v>1375.1</v>
@@ -2067,30 +2106,30 @@
         <v>-5.14</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
         <v>64</v>
-      </c>
-      <c r="H29" t="s">
-        <v>66</v>
       </c>
       <c r="I29">
         <v>1721.07</v>
@@ -2114,30 +2153,30 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I30">
         <v>1742.29</v>
@@ -2161,30 +2200,30 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I31">
         <v>1840.59</v>
@@ -2208,30 +2247,30 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I32">
         <v>1794.9</v>
@@ -2260,25 +2299,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I33">
         <v>1602.72</v>
@@ -2307,25 +2346,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I34">
         <v>1461.55</v>
@@ -2354,25 +2393,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I35">
         <v>1568.86</v>
@@ -2401,25 +2440,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I36">
         <v>1333.76</v>
@@ -2448,25 +2487,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I37">
         <v>1501.47</v>

--- a/FIFA groupstage Real result.xlsx
+++ b/FIFA groupstage Real result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847889E-F524-AF4A-89C6-ED24EAF0434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20431366-BF22-6E4A-A44E-DC98324F33AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1870,6 +1870,12 @@
       <c r="O23">
         <v>7.43</v>
       </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1917,6 +1923,12 @@
       <c r="O24">
         <v>3.05</v>
       </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1963,6 +1975,12 @@
       </c>
       <c r="O25">
         <v>-4.5599999999999996</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">

--- a/FIFA groupstage Real result.xlsx
+++ b/FIFA groupstage Real result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20431366-BF22-6E4A-A44E-DC98324F33AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39274B1E-DE97-2E4F-96BC-076F4025A91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/FIFA groupstage Real result.xlsx
+++ b/FIFA groupstage Real result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39274B1E-DE97-2E4F-96BC-076F4025A91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC3E9C-805C-674F-814C-9C03FE6D8DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/FIFA groupstage Real result.xlsx
+++ b/FIFA groupstage Real result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC3E9C-805C-674F-814C-9C03FE6D8DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52A895B-3117-A44D-B60D-AB8F5B4E06E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
